--- a/MTG.xlsx
+++ b/MTG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacop\OneDrive\Desktop\Thesis\Data analysis\MTG_elaboration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1E3186-5AD3-4828-A388-8CF66B9A2AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27056BE-1F98-4A2B-9B4B-FC268BBB7E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{75AE8B9D-B94D-4A90-922F-37B4485709A8}"/>
   </bookViews>
@@ -730,7 +730,7 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,7 +746,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -1043,11 +1043,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FD7564-1FE3-46D8-96B8-1A13DC8468A9}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:X667"/>
+  <dimension ref="A1:X669"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A618" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E659" sqref="E659"/>
+      <pane ySplit="1" topLeftCell="A625" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R653" sqref="R653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -7421,7 +7421,7 @@
         <v>6</v>
       </c>
       <c r="H108">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I108" s="9">
         <v>5.1326572266508901</v>
@@ -7471,7 +7471,7 @@
         <v>6</v>
       </c>
       <c r="H109">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I109" s="9">
         <v>10.4816575175581</v>
@@ -8129,7 +8129,7 @@
         <v>6</v>
       </c>
       <c r="H120">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I120" s="9">
         <v>7.7131179565301302</v>
@@ -8179,7 +8179,7 @@
         <v>6</v>
       </c>
       <c r="H121">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I121" s="9">
         <v>17.242448189025598</v>
@@ -8837,7 +8837,7 @@
         <v>6</v>
       </c>
       <c r="H132">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I132" s="9">
         <v>5.4096134422290998</v>
@@ -8887,7 +8887,7 @@
         <v>6</v>
       </c>
       <c r="H133">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I133" s="9">
         <v>15.2637799547191</v>
@@ -9545,7 +9545,7 @@
         <v>6</v>
       </c>
       <c r="H144">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I144" s="9">
         <v>2.7164089951792598</v>
@@ -9595,7 +9595,7 @@
         <v>6</v>
       </c>
       <c r="H145">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I145" s="9">
         <v>8.5103987760224893</v>
@@ -10253,7 +10253,7 @@
         <v>6</v>
       </c>
       <c r="H156">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I156" s="9">
         <v>7.8641170881365197</v>
@@ -10303,7 +10303,7 @@
         <v>6</v>
       </c>
       <c r="H157">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I157" s="9">
         <v>19.953978835309201</v>
@@ -10962,7 +10962,7 @@
         <v>6</v>
       </c>
       <c r="H168">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I168" s="9">
         <v>4.9083584549325403</v>
@@ -11012,7 +11012,7 @@
         <v>6</v>
       </c>
       <c r="H169">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I169" s="9">
         <v>15.732859386255001</v>
@@ -11670,7 +11670,7 @@
         <v>6</v>
       </c>
       <c r="H180">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I180" s="9">
         <v>3.6105666956871398</v>
@@ -11720,7 +11720,7 @@
         <v>6</v>
       </c>
       <c r="H181">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I181" s="9">
         <v>10.0351554230035</v>
@@ -12378,7 +12378,7 @@
         <v>6</v>
       </c>
       <c r="H192">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I192" s="9">
         <v>4.1475321770770002</v>
@@ -12428,7 +12428,7 @@
         <v>6</v>
       </c>
       <c r="H193">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I193" s="9">
         <v>13.304623402054601</v>
@@ -12496,7 +12496,7 @@
         <v>7</v>
       </c>
       <c r="H194">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="I194" s="9">
         <v>2.64869072094185</v>
@@ -12546,7 +12546,7 @@
         <v>7</v>
       </c>
       <c r="H195">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="I195" s="9">
         <v>8.8967408345138601</v>
@@ -13204,7 +13204,7 @@
         <v>6</v>
       </c>
       <c r="H206">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I206" s="9">
         <v>9.8691985664006001</v>
@@ -13254,7 +13254,7 @@
         <v>6</v>
       </c>
       <c r="H207">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I207" s="9">
         <v>15.079921916079901</v>
@@ -13322,7 +13322,7 @@
         <v>7</v>
       </c>
       <c r="H208">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="I208" s="9">
         <v>3.0263185525594101</v>
@@ -13372,7 +13372,7 @@
         <v>7</v>
       </c>
       <c r="H209">
-        <v>0.33329999999999999</v>
+        <v>1</v>
       </c>
       <c r="I209" s="9">
         <v>5.2935697798335699</v>
@@ -14030,7 +14030,7 @@
         <v>6</v>
       </c>
       <c r="H220">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I220" s="9">
         <v>4.2061529774850097</v>
@@ -14080,7 +14080,7 @@
         <v>6</v>
       </c>
       <c r="H221">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I221" s="9">
         <v>14.474077567467701</v>
@@ -14148,7 +14148,7 @@
         <v>7</v>
       </c>
       <c r="H222">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I222" s="9">
         <v>5.1176191951001098</v>
@@ -14198,7 +14198,7 @@
         <v>7</v>
       </c>
       <c r="H223">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I223" s="9">
         <v>8.3366367531793202</v>
@@ -14856,7 +14856,7 @@
         <v>6</v>
       </c>
       <c r="H234">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I234" s="9">
         <v>6.1857916272234599</v>
@@ -14906,7 +14906,7 @@
         <v>6</v>
       </c>
       <c r="H235">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I235" s="9">
         <v>9.9241958225181399</v>
@@ -15564,7 +15564,7 @@
         <v>6</v>
       </c>
       <c r="H246">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I246" s="9">
         <v>8.6593240581823796</v>
@@ -15614,7 +15614,7 @@
         <v>6</v>
       </c>
       <c r="H247">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I247" s="9">
         <v>12.2464544017233</v>
@@ -16626,7 +16626,7 @@
         <v>9</v>
       </c>
       <c r="H264">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I264" s="9">
         <v>13.595620741001801</v>
@@ -16676,7 +16676,7 @@
         <v>9</v>
       </c>
       <c r="H265">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I265" s="9">
         <v>11.5441486135133</v>
@@ -17688,7 +17688,7 @@
         <v>9</v>
       </c>
       <c r="H282">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I282" s="9">
         <v>7.7544339159632498</v>
@@ -17738,7 +17738,7 @@
         <v>9</v>
       </c>
       <c r="H283">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I283" s="9">
         <v>11.2058299973855</v>
@@ -18750,7 +18750,7 @@
         <v>9</v>
       </c>
       <c r="H300">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I300" s="9">
         <v>13.514941756826699</v>
@@ -18800,7 +18800,7 @@
         <v>9</v>
       </c>
       <c r="H301">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I301" s="9">
         <v>18.696210160424702</v>
@@ -18868,7 +18868,7 @@
         <v>10</v>
       </c>
       <c r="H302">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I302" s="9">
         <v>16.349323536318199</v>
@@ -18918,7 +18918,7 @@
         <v>10</v>
       </c>
       <c r="H303">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I303" s="9">
         <v>11.63426601167</v>
@@ -19930,7 +19930,7 @@
         <v>9</v>
       </c>
       <c r="H320">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I320" s="9">
         <v>14.8475456784066</v>
@@ -19980,7 +19980,7 @@
         <v>9</v>
       </c>
       <c r="H321">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I321" s="9">
         <v>8.5516601925977902</v>
@@ -20992,7 +20992,7 @@
         <v>9</v>
       </c>
       <c r="H338">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I338" s="9">
         <v>9.0752464815702005</v>
@@ -21042,7 +21042,7 @@
         <v>9</v>
       </c>
       <c r="H339">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I339" s="9">
         <v>28.836811929787402</v>
@@ -22054,7 +22054,7 @@
         <v>9</v>
       </c>
       <c r="H356">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I356" s="9">
         <v>13.8074009229213</v>
@@ -22104,7 +22104,7 @@
         <v>9</v>
       </c>
       <c r="H357">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I357" s="9">
         <v>16.212636567626699</v>
@@ -22172,7 +22172,7 @@
         <v>10</v>
       </c>
       <c r="H358">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I358" s="9">
         <v>9.7703371219208499</v>
@@ -22222,7 +22222,7 @@
         <v>10</v>
       </c>
       <c r="H359">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I359" s="9">
         <v>6.2260830753484404</v>
@@ -23234,7 +23234,7 @@
         <v>9</v>
       </c>
       <c r="H376">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I376" s="9">
         <v>19.7008257601879</v>
@@ -23284,7 +23284,7 @@
         <v>9</v>
       </c>
       <c r="H377">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I377" s="9">
         <v>24.5910099537383</v>
@@ -24178,7 +24178,7 @@
         <v>8</v>
       </c>
       <c r="H392">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I392" s="9">
         <v>11.108322567779901</v>
@@ -24228,7 +24228,7 @@
         <v>8</v>
       </c>
       <c r="H393">
-        <v>0.16669999999999999</v>
+        <v>1</v>
       </c>
       <c r="I393" s="9">
         <v>6.5736187255132297</v>
@@ -25240,7 +25240,7 @@
         <v>9</v>
       </c>
       <c r="H410">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I410" s="9">
         <v>6.5512372047655303</v>
@@ -25290,7 +25290,7 @@
         <v>9</v>
       </c>
       <c r="H411">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I411" s="9">
         <v>11.7958280612472</v>
@@ -26302,7 +26302,7 @@
         <v>9</v>
       </c>
       <c r="H428">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I428" s="9">
         <v>9.7788416151358</v>
@@ -26352,7 +26352,7 @@
         <v>9</v>
       </c>
       <c r="H429">
-        <v>0.83330000000000004</v>
+        <v>1</v>
       </c>
       <c r="I429" s="9">
         <v>16.649216990862101</v>
@@ -27364,7 +27364,7 @@
         <v>9</v>
       </c>
       <c r="H446">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I446" s="9">
         <v>7.5461166887859701</v>
@@ -27414,7 +27414,7 @@
         <v>9</v>
       </c>
       <c r="H447">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I447" s="9">
         <v>7.2651002920724199</v>
@@ -28426,7 +28426,7 @@
         <v>9</v>
       </c>
       <c r="H464">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I464" s="9">
         <v>6.3314084976573399</v>
@@ -28476,7 +28476,7 @@
         <v>9</v>
       </c>
       <c r="H465">
-        <v>0.66669999999999996</v>
+        <v>1</v>
       </c>
       <c r="I465" s="9">
         <v>5.1376119326186602</v>
@@ -28670,8 +28670,8 @@
       <c r="P468" s="9">
         <v>90</v>
       </c>
-      <c r="Q468" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q468">
+        <v>1.718907E-3</v>
       </c>
       <c r="R468" t="s">
         <v>187</v>
@@ -28741,8 +28741,8 @@
       <c r="P469" s="9">
         <v>90</v>
       </c>
-      <c r="Q469" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q469">
+        <v>1.718907E-3</v>
       </c>
       <c r="R469" t="s">
         <v>187</v>
@@ -28803,6 +28803,7 @@
       <c r="M470" s="10">
         <v>10.507646855211901</v>
       </c>
+      <c r="Q470"/>
       <c r="R470" t="s">
         <v>187</v>
       </c>
@@ -28862,8 +28863,8 @@
       <c r="P471" s="9">
         <v>90</v>
       </c>
-      <c r="Q471" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q471">
+        <v>6.1815439999999998E-3</v>
       </c>
       <c r="R471" t="s">
         <v>187</v>
@@ -28924,6 +28925,7 @@
       <c r="M472" s="10">
         <v>8.4312870848521406</v>
       </c>
+      <c r="Q472"/>
       <c r="R472" t="s">
         <v>187</v>
       </c>
@@ -28983,8 +28985,8 @@
       <c r="P473" s="9">
         <v>90</v>
       </c>
-      <c r="Q473" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q473">
+        <v>6.791882E-3</v>
       </c>
       <c r="R473" t="s">
         <v>187</v>
@@ -29045,6 +29047,7 @@
       <c r="M474" s="9">
         <v>4.7141183372439404</v>
       </c>
+      <c r="Q474"/>
       <c r="R474" t="s">
         <v>187</v>
       </c>
@@ -29104,8 +29107,8 @@
       <c r="P475" s="9">
         <v>90</v>
       </c>
-      <c r="Q475" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q475">
+        <v>7.3202800000000002E-3</v>
       </c>
       <c r="R475" t="s">
         <v>187</v>
@@ -29166,6 +29169,7 @@
       <c r="M476" s="10">
         <v>14.8756101049217</v>
       </c>
+      <c r="Q476"/>
       <c r="R476" t="s">
         <v>187</v>
       </c>
@@ -29225,8 +29229,8 @@
       <c r="P477" s="9">
         <v>90</v>
       </c>
-      <c r="Q477" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q477">
+        <v>9.1294400000000008E-3</v>
       </c>
       <c r="R477" t="s">
         <v>187</v>
@@ -29287,6 +29291,7 @@
       <c r="M478" s="10">
         <v>3.4886168702915499</v>
       </c>
+      <c r="Q478"/>
       <c r="R478" t="s">
         <v>187</v>
       </c>
@@ -29346,8 +29351,8 @@
       <c r="P479" s="9">
         <v>90</v>
       </c>
-      <c r="Q479" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q479">
+        <v>6.8884100000000002E-3</v>
       </c>
       <c r="R479" t="s">
         <v>187</v>
@@ -29408,6 +29413,7 @@
       <c r="M480" s="10">
         <v>26.818412919808299</v>
       </c>
+      <c r="Q480"/>
       <c r="R480" t="s">
         <v>187</v>
       </c>
@@ -29467,8 +29473,8 @@
       <c r="P481" s="9">
         <v>90</v>
       </c>
-      <c r="Q481" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q481">
+        <v>5.5255829999999997E-3</v>
       </c>
       <c r="R481" t="s">
         <v>187</v>
@@ -29529,6 +29535,7 @@
       <c r="M482" s="10">
         <v>22.814326475576902</v>
       </c>
+      <c r="Q482"/>
       <c r="R482" t="s">
         <v>187</v>
       </c>
@@ -29588,8 +29595,8 @@
       <c r="P483" s="9">
         <v>90</v>
       </c>
-      <c r="Q483" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q483">
+        <v>2.1792999999999999E-3</v>
       </c>
       <c r="R483" t="s">
         <v>187</v>
@@ -29650,6 +29657,7 @@
       <c r="M484" s="10">
         <v>18.648890597197699</v>
       </c>
+      <c r="Q484"/>
       <c r="R484" t="s">
         <v>187</v>
       </c>
@@ -29700,6 +29708,7 @@
       <c r="M485" s="10">
         <v>18.894497100118201</v>
       </c>
+      <c r="Q485"/>
       <c r="R485" t="s">
         <v>187</v>
       </c>
@@ -29759,8 +29768,8 @@
       <c r="P486" s="9">
         <v>90</v>
       </c>
-      <c r="Q486" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q486">
+        <v>1.718907E-3</v>
       </c>
       <c r="R486" t="s">
         <v>187</v>
@@ -29830,8 +29839,8 @@
       <c r="P487" s="9">
         <v>90</v>
       </c>
-      <c r="Q487" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q487">
+        <v>1.718907E-3</v>
       </c>
       <c r="R487" t="s">
         <v>187</v>
@@ -29892,6 +29901,7 @@
       <c r="M488" s="10">
         <v>15.9062010065471</v>
       </c>
+      <c r="Q488"/>
       <c r="R488" t="s">
         <v>187</v>
       </c>
@@ -29951,8 +29961,8 @@
       <c r="P489" s="9">
         <v>90</v>
       </c>
-      <c r="Q489" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q489">
+        <v>6.1815439999999998E-3</v>
       </c>
       <c r="R489" t="s">
         <v>187</v>
@@ -30013,6 +30023,7 @@
       <c r="M490" s="10">
         <v>6.1789518985811496</v>
       </c>
+      <c r="Q490"/>
       <c r="R490" t="s">
         <v>187</v>
       </c>
@@ -30072,8 +30083,8 @@
       <c r="P491" s="9">
         <v>90</v>
       </c>
-      <c r="Q491" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q491">
+        <v>6.791882E-3</v>
       </c>
       <c r="R491" t="s">
         <v>187</v>
@@ -30134,6 +30145,7 @@
       <c r="M492" s="10">
         <v>12.0558727345196</v>
       </c>
+      <c r="Q492"/>
       <c r="R492" t="s">
         <v>187</v>
       </c>
@@ -30193,8 +30205,8 @@
       <c r="P493" s="9">
         <v>90</v>
       </c>
-      <c r="Q493" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q493">
+        <v>7.3202800000000002E-3</v>
       </c>
       <c r="R493" t="s">
         <v>187</v>
@@ -30255,6 +30267,7 @@
       <c r="M494" s="10">
         <v>9.3672248426225302</v>
       </c>
+      <c r="Q494"/>
       <c r="R494" t="s">
         <v>187</v>
       </c>
@@ -30314,8 +30327,8 @@
       <c r="P495" s="9">
         <v>90</v>
       </c>
-      <c r="Q495" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q495">
+        <v>9.1294400000000008E-3</v>
       </c>
       <c r="R495" t="s">
         <v>187</v>
@@ -30376,6 +30389,7 @@
       <c r="M496" s="10">
         <v>5.6347094561048703</v>
       </c>
+      <c r="Q496"/>
       <c r="R496" t="s">
         <v>187</v>
       </c>
@@ -30435,8 +30449,8 @@
       <c r="P497" s="9">
         <v>90</v>
       </c>
-      <c r="Q497" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q497">
+        <v>6.8884100000000002E-3</v>
       </c>
       <c r="R497" t="s">
         <v>187</v>
@@ -30497,6 +30511,7 @@
       <c r="M498" s="9">
         <v>9.0456843719442599</v>
       </c>
+      <c r="Q498"/>
       <c r="R498" t="s">
         <v>187</v>
       </c>
@@ -30556,8 +30571,8 @@
       <c r="P499" s="9">
         <v>90</v>
       </c>
-      <c r="Q499" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q499">
+        <v>5.5255829999999997E-3</v>
       </c>
       <c r="R499" t="s">
         <v>187</v>
@@ -30618,6 +30633,7 @@
       <c r="M500" s="10">
         <v>4.9053380491905703</v>
       </c>
+      <c r="Q500"/>
       <c r="R500" t="s">
         <v>187</v>
       </c>
@@ -30677,8 +30693,8 @@
       <c r="P501" s="9">
         <v>90</v>
       </c>
-      <c r="Q501" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q501">
+        <v>2.1792999999999999E-3</v>
       </c>
       <c r="R501" t="s">
         <v>187</v>
@@ -30722,7 +30738,7 @@
         <v>10</v>
       </c>
       <c r="H502">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I502" s="10">
         <v>26.195866129490302</v>
@@ -30739,6 +30755,7 @@
       <c r="M502" s="9">
         <v>21.6930651344239</v>
       </c>
+      <c r="Q502"/>
       <c r="R502" t="s">
         <v>187</v>
       </c>
@@ -30772,7 +30789,7 @@
         <v>10</v>
       </c>
       <c r="H503">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I503" s="10">
         <v>11.0128953026768</v>
@@ -30798,8 +30815,8 @@
       <c r="P503" s="9">
         <v>90</v>
       </c>
-      <c r="Q503" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q503">
+        <v>4.8312799999999999E-4</v>
       </c>
       <c r="R503" t="s">
         <v>187</v>
@@ -30860,6 +30877,7 @@
       <c r="M504" s="10">
         <v>4.1317031541858498</v>
       </c>
+      <c r="Q504"/>
       <c r="R504" t="s">
         <v>187</v>
       </c>
@@ -30910,6 +30928,7 @@
       <c r="M505" s="10">
         <v>7.4243516714202498</v>
       </c>
+      <c r="Q505"/>
       <c r="R505" t="s">
         <v>187</v>
       </c>
@@ -30969,8 +30988,8 @@
       <c r="P506" s="9">
         <v>90</v>
       </c>
-      <c r="Q506" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q506">
+        <v>1.718907E-3</v>
       </c>
       <c r="R506" t="s">
         <v>187</v>
@@ -31040,8 +31059,8 @@
       <c r="P507" s="9">
         <v>90</v>
       </c>
-      <c r="Q507" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q507">
+        <v>1.718907E-3</v>
       </c>
       <c r="R507" t="s">
         <v>187</v>
@@ -31102,6 +31121,7 @@
       <c r="M508" s="10">
         <v>6.4903701038601396</v>
       </c>
+      <c r="Q508"/>
       <c r="R508" t="s">
         <v>187</v>
       </c>
@@ -31161,8 +31181,8 @@
       <c r="P509" s="9">
         <v>90</v>
       </c>
-      <c r="Q509" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q509">
+        <v>6.1815439999999998E-3</v>
       </c>
       <c r="R509" t="s">
         <v>187</v>
@@ -31223,6 +31243,7 @@
       <c r="M510" s="10">
         <v>9.2462120591781307</v>
       </c>
+      <c r="Q510"/>
       <c r="R510" t="s">
         <v>187</v>
       </c>
@@ -31282,8 +31303,8 @@
       <c r="P511" s="9">
         <v>90</v>
       </c>
-      <c r="Q511" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q511">
+        <v>6.791882E-3</v>
       </c>
       <c r="R511" t="s">
         <v>187</v>
@@ -31344,6 +31365,7 @@
       <c r="M512" s="10">
         <v>6.7968121561884702</v>
       </c>
+      <c r="Q512"/>
       <c r="R512" t="s">
         <v>187</v>
       </c>
@@ -31403,8 +31425,8 @@
       <c r="P513" s="9">
         <v>90</v>
       </c>
-      <c r="Q513" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q513">
+        <v>7.3202800000000002E-3</v>
       </c>
       <c r="R513" t="s">
         <v>187</v>
@@ -31465,6 +31487,7 @@
       <c r="M514" s="10">
         <v>1.96389251620252</v>
       </c>
+      <c r="Q514"/>
       <c r="R514" t="s">
         <v>187</v>
       </c>
@@ -31524,8 +31547,8 @@
       <c r="P515" s="9">
         <v>90</v>
       </c>
-      <c r="Q515" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q515">
+        <v>9.1294400000000008E-3</v>
       </c>
       <c r="R515" t="s">
         <v>187</v>
@@ -31586,6 +31609,7 @@
       <c r="M516" s="10">
         <v>13.271468249762099</v>
       </c>
+      <c r="Q516"/>
       <c r="R516" t="s">
         <v>187</v>
       </c>
@@ -31645,8 +31669,8 @@
       <c r="P517" s="9">
         <v>90</v>
       </c>
-      <c r="Q517" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q517">
+        <v>6.8884100000000002E-3</v>
       </c>
       <c r="R517" t="s">
         <v>187</v>
@@ -31707,6 +31731,7 @@
       <c r="M518" s="10">
         <v>36.785359118240599</v>
       </c>
+      <c r="Q518"/>
       <c r="R518" t="s">
         <v>187</v>
       </c>
@@ -31766,8 +31791,8 @@
       <c r="P519" s="9">
         <v>90</v>
       </c>
-      <c r="Q519" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q519">
+        <v>5.5255829999999997E-3</v>
       </c>
       <c r="R519" t="s">
         <v>187</v>
@@ -31828,6 +31853,7 @@
       <c r="M520" s="10">
         <v>41.124591101570203</v>
       </c>
+      <c r="Q520"/>
       <c r="R520" t="s">
         <v>187</v>
       </c>
@@ -31887,8 +31913,8 @@
       <c r="P521" s="9">
         <v>90</v>
       </c>
-      <c r="Q521" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q521">
+        <v>2.1792999999999999E-3</v>
       </c>
       <c r="R521" t="s">
         <v>187</v>
@@ -31932,7 +31958,7 @@
         <v>10</v>
       </c>
       <c r="H522">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I522" s="10">
         <v>10.3848744581316</v>
@@ -31949,6 +31975,7 @@
       <c r="M522" s="10">
         <v>43.806747506540098</v>
       </c>
+      <c r="Q522"/>
       <c r="R522" t="s">
         <v>187</v>
       </c>
@@ -31982,7 +32009,7 @@
         <v>10</v>
       </c>
       <c r="H523">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I523" s="10">
         <v>20.449599322726701</v>
@@ -32008,8 +32035,8 @@
       <c r="P523" s="9">
         <v>90</v>
       </c>
-      <c r="Q523" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q523">
+        <v>4.8312799999999999E-4</v>
       </c>
       <c r="R523" t="s">
         <v>187</v>
@@ -32070,6 +32097,7 @@
       <c r="M524" s="10">
         <v>6.8695495091034502</v>
       </c>
+      <c r="Q524"/>
       <c r="R524" t="s">
         <v>187</v>
       </c>
@@ -32120,6 +32148,7 @@
       <c r="M525" s="10">
         <v>10.595665672603999</v>
       </c>
+      <c r="Q525"/>
       <c r="R525" t="s">
         <v>187</v>
       </c>
@@ -32179,8 +32208,8 @@
       <c r="P526" s="9">
         <v>90</v>
       </c>
-      <c r="Q526" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q526">
+        <v>1.718907E-3</v>
       </c>
       <c r="R526" t="s">
         <v>187</v>
@@ -32250,8 +32279,8 @@
       <c r="P527" s="9">
         <v>90</v>
       </c>
-      <c r="Q527" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q527">
+        <v>1.718907E-3</v>
       </c>
       <c r="R527" t="s">
         <v>187</v>
@@ -32312,6 +32341,7 @@
       <c r="M528" s="10">
         <v>13.9992905984363</v>
       </c>
+      <c r="Q528"/>
       <c r="R528" t="s">
         <v>187</v>
       </c>
@@ -32371,8 +32401,8 @@
       <c r="P529" s="9">
         <v>90</v>
       </c>
-      <c r="Q529" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q529">
+        <v>6.1815439999999998E-3</v>
       </c>
       <c r="R529" t="s">
         <v>187</v>
@@ -32433,6 +32463,7 @@
       <c r="M530" s="10">
         <v>4.2578020386680802</v>
       </c>
+      <c r="Q530"/>
       <c r="R530" t="s">
         <v>187</v>
       </c>
@@ -32492,8 +32523,8 @@
       <c r="P531" s="9">
         <v>90</v>
       </c>
-      <c r="Q531" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q531">
+        <v>6.791882E-3</v>
       </c>
       <c r="R531" t="s">
         <v>187</v>
@@ -32554,6 +32585,7 @@
       <c r="M532" s="10">
         <v>7.2636757985122804</v>
       </c>
+      <c r="Q532"/>
       <c r="R532" t="s">
         <v>187</v>
       </c>
@@ -32613,8 +32645,8 @@
       <c r="P533" s="9">
         <v>90</v>
       </c>
-      <c r="Q533" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q533">
+        <v>7.3202800000000002E-3</v>
       </c>
       <c r="R533" t="s">
         <v>187</v>
@@ -32675,6 +32707,7 @@
       <c r="M534" s="10">
         <v>9.2303927387324105</v>
       </c>
+      <c r="Q534"/>
       <c r="R534" t="s">
         <v>187</v>
       </c>
@@ -32734,8 +32767,8 @@
       <c r="P535" s="9">
         <v>90</v>
       </c>
-      <c r="Q535" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q535">
+        <v>9.1294400000000008E-3</v>
       </c>
       <c r="R535" t="s">
         <v>187</v>
@@ -32796,6 +32829,7 @@
       <c r="M536" s="10">
         <v>6.2487998826179298</v>
       </c>
+      <c r="Q536"/>
       <c r="R536" t="s">
         <v>187</v>
       </c>
@@ -32855,8 +32889,8 @@
       <c r="P537" s="9">
         <v>90</v>
       </c>
-      <c r="Q537" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q537">
+        <v>6.8884100000000002E-3</v>
       </c>
       <c r="R537" t="s">
         <v>187</v>
@@ -32917,6 +32951,7 @@
       <c r="M538" s="10">
         <v>13.8443687072819</v>
       </c>
+      <c r="Q538"/>
       <c r="R538" t="s">
         <v>187</v>
       </c>
@@ -32976,8 +33011,8 @@
       <c r="P539" s="9">
         <v>90</v>
       </c>
-      <c r="Q539" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q539">
+        <v>5.5255829999999997E-3</v>
       </c>
       <c r="R539" t="s">
         <v>187</v>
@@ -33038,6 +33073,7 @@
       <c r="M540" s="10">
         <v>16.2069719190829</v>
       </c>
+      <c r="Q540"/>
       <c r="R540" t="s">
         <v>187</v>
       </c>
@@ -33097,8 +33133,8 @@
       <c r="P541" s="9">
         <v>90</v>
       </c>
-      <c r="Q541" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q541">
+        <v>2.1792999999999999E-3</v>
       </c>
       <c r="R541" t="s">
         <v>187</v>
@@ -33142,7 +33178,7 @@
         <v>10</v>
       </c>
       <c r="H542">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I542" s="10">
         <v>21.996413472775</v>
@@ -33159,6 +33195,7 @@
       <c r="M542" s="10">
         <v>23.620124023909501</v>
       </c>
+      <c r="Q542"/>
       <c r="R542" t="s">
         <v>187</v>
       </c>
@@ -33192,7 +33229,7 @@
         <v>10</v>
       </c>
       <c r="H543">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="I543" s="10">
         <v>16.9238376569911</v>
@@ -33218,8 +33255,8 @@
       <c r="P543" s="9">
         <v>90</v>
       </c>
-      <c r="Q543" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q543">
+        <v>4.8312799999999999E-4</v>
       </c>
       <c r="R543" t="s">
         <v>187</v>
@@ -33263,7 +33300,7 @@
         <v>11</v>
       </c>
       <c r="H544">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="I544" s="10">
         <v>25.990878981946999</v>
@@ -33280,6 +33317,7 @@
       <c r="M544" s="10">
         <v>20.757516152208701</v>
       </c>
+      <c r="Q544"/>
       <c r="R544" t="s">
         <v>187</v>
       </c>
@@ -33313,7 +33351,7 @@
         <v>11</v>
       </c>
       <c r="H545">
-        <v>0.32</v>
+        <v>1</v>
       </c>
       <c r="I545" s="10">
         <v>17.668407905837601</v>
@@ -33339,8 +33377,8 @@
       <c r="P545" s="9">
         <v>90</v>
       </c>
-      <c r="Q545" s="9">
-        <v>2.9772376769368771E-4</v>
+      <c r="Q545">
+        <v>4.0465299999999999E-4</v>
       </c>
       <c r="R545" t="s">
         <v>187</v>
@@ -33384,7 +33422,7 @@
         <v>12</v>
       </c>
       <c r="H546">
-        <v>0.25600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I546" s="10">
         <v>16.712462621633001</v>
@@ -33434,7 +33472,7 @@
         <v>12</v>
       </c>
       <c r="H547">
-        <v>0.25600000000000001</v>
+        <v>1</v>
       </c>
       <c r="I547" s="10">
         <v>11.4000081947633</v>
@@ -33460,8 +33498,8 @@
       <c r="P547" s="9">
         <v>90</v>
       </c>
-      <c r="Q547" s="9">
-        <v>2.9772376769368771E-4</v>
+      <c r="Q547">
+        <v>4.0465299999999999E-4</v>
       </c>
       <c r="R547" t="s">
         <v>187</v>
@@ -33631,8 +33669,8 @@
       <c r="P550" s="9">
         <v>90</v>
       </c>
-      <c r="Q550" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q550">
+        <v>1.718907E-3</v>
       </c>
       <c r="R550" t="s">
         <v>191</v>
@@ -33702,8 +33740,8 @@
       <c r="P551" s="9">
         <v>90</v>
       </c>
-      <c r="Q551" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q551">
+        <v>1.718907E-3</v>
       </c>
       <c r="R551" t="s">
         <v>191</v>
@@ -33764,6 +33802,7 @@
       <c r="M552" s="10">
         <v>13.263811676732001</v>
       </c>
+      <c r="Q552"/>
       <c r="R552" t="s">
         <v>191</v>
       </c>
@@ -33823,8 +33862,8 @@
       <c r="P553" s="9">
         <v>90</v>
       </c>
-      <c r="Q553" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q553">
+        <v>5.8944169999999999E-3</v>
       </c>
       <c r="R553" t="s">
         <v>191</v>
@@ -33885,6 +33924,7 @@
       <c r="M554" s="10">
         <v>26.782281742204301</v>
       </c>
+      <c r="Q554"/>
       <c r="R554" t="s">
         <v>191</v>
       </c>
@@ -33944,8 +33984,8 @@
       <c r="P555" s="9">
         <v>90</v>
       </c>
-      <c r="Q555" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q555">
+        <v>7.4625059999999998E-3</v>
       </c>
       <c r="R555" t="s">
         <v>191</v>
@@ -34006,6 +34046,7 @@
       <c r="M556" s="10">
         <v>24.666301441686901</v>
       </c>
+      <c r="Q556"/>
       <c r="R556" t="s">
         <v>191</v>
       </c>
@@ -34065,8 +34106,8 @@
       <c r="P557" s="9">
         <v>90</v>
       </c>
-      <c r="Q557" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q557">
+        <v>7.6647809999999999E-3</v>
       </c>
       <c r="R557" t="s">
         <v>191</v>
@@ -34127,6 +34168,7 @@
       <c r="M558" s="10">
         <v>13.0025876764684</v>
       </c>
+      <c r="Q558"/>
       <c r="R558" t="s">
         <v>191</v>
       </c>
@@ -34186,8 +34228,8 @@
       <c r="P559" s="9">
         <v>90</v>
       </c>
-      <c r="Q559" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q559">
+        <v>7.7292799999999998E-3</v>
       </c>
       <c r="R559" t="s">
         <v>191</v>
@@ -34248,6 +34290,7 @@
       <c r="M560" s="10">
         <v>25.786307505696801</v>
       </c>
+      <c r="Q560"/>
       <c r="R560" t="s">
         <v>191</v>
       </c>
@@ -34307,8 +34350,8 @@
       <c r="P561" s="9">
         <v>90</v>
       </c>
-      <c r="Q561" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q561">
+        <v>6.2496360000000003E-3</v>
       </c>
       <c r="R561" t="s">
         <v>191</v>
@@ -34369,6 +34412,7 @@
       <c r="M562" s="10">
         <v>11.6530030131981</v>
       </c>
+      <c r="Q562"/>
       <c r="R562" t="s">
         <v>191</v>
       </c>
@@ -34428,8 +34472,8 @@
       <c r="P563" s="9">
         <v>90</v>
       </c>
-      <c r="Q563" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q563">
+        <v>4.12956E-3</v>
       </c>
       <c r="R563" t="s">
         <v>191</v>
@@ -34490,6 +34534,7 @@
       <c r="M564" s="9">
         <v>9.9212348619450808</v>
       </c>
+      <c r="Q564"/>
       <c r="R564" t="s">
         <v>191</v>
       </c>
@@ -34549,8 +34594,8 @@
       <c r="P565" s="9">
         <v>90</v>
       </c>
-      <c r="Q565" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q565">
+        <v>1.2614799999999999E-3</v>
       </c>
       <c r="R565" t="s">
         <v>191</v>
@@ -34594,7 +34639,7 @@
         <v>10</v>
       </c>
       <c r="H566">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I566" s="10">
         <v>19.612317365920699</v>
@@ -34611,6 +34656,7 @@
       <c r="M566" s="10">
         <v>8.5002498148279493</v>
       </c>
+      <c r="Q566"/>
       <c r="R566" t="s">
         <v>191</v>
       </c>
@@ -34644,7 +34690,7 @@
         <v>10</v>
       </c>
       <c r="H567">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I567" s="10">
         <v>14.152172005493201</v>
@@ -34670,8 +34716,8 @@
       <c r="P567" s="9">
         <v>90</v>
       </c>
-      <c r="Q567" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q567">
+        <v>2.6070200000000003E-4</v>
       </c>
       <c r="R567" t="s">
         <v>191</v>
@@ -34732,6 +34778,7 @@
       <c r="M568" s="10">
         <v>6.7008154070122403</v>
       </c>
+      <c r="Q568"/>
       <c r="R568" t="s">
         <v>191</v>
       </c>
@@ -34782,6 +34829,7 @@
       <c r="M569" s="10">
         <v>13.667507673714701</v>
       </c>
+      <c r="Q569"/>
       <c r="R569" t="s">
         <v>191</v>
       </c>
@@ -34841,8 +34889,8 @@
       <c r="P570" s="9">
         <v>90</v>
       </c>
-      <c r="Q570" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q570">
+        <v>1.718907E-3</v>
       </c>
       <c r="R570" t="s">
         <v>191</v>
@@ -34912,8 +34960,8 @@
       <c r="P571" s="9">
         <v>90</v>
       </c>
-      <c r="Q571" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q571">
+        <v>1.718907E-3</v>
       </c>
       <c r="R571" t="s">
         <v>191</v>
@@ -34974,6 +35022,7 @@
       <c r="M572" s="10">
         <v>10.1369963216362</v>
       </c>
+      <c r="Q572"/>
       <c r="R572" t="s">
         <v>191</v>
       </c>
@@ -35033,8 +35082,8 @@
       <c r="P573" s="9">
         <v>90</v>
       </c>
-      <c r="Q573" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q573">
+        <v>5.8944169999999999E-3</v>
       </c>
       <c r="R573" t="s">
         <v>191</v>
@@ -35095,6 +35144,7 @@
       <c r="M574" s="10">
         <v>11.238179443406599</v>
       </c>
+      <c r="Q574"/>
       <c r="R574" t="s">
         <v>191</v>
       </c>
@@ -35154,8 +35204,8 @@
       <c r="P575" s="9">
         <v>90</v>
       </c>
-      <c r="Q575" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q575">
+        <v>7.4625059999999998E-3</v>
       </c>
       <c r="R575" t="s">
         <v>191</v>
@@ -35216,6 +35266,7 @@
       <c r="M576" s="10">
         <v>13.002437238896</v>
       </c>
+      <c r="Q576"/>
       <c r="R576" t="s">
         <v>191</v>
       </c>
@@ -35275,8 +35326,8 @@
       <c r="P577" s="9">
         <v>90</v>
       </c>
-      <c r="Q577" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q577">
+        <v>7.6647809999999999E-3</v>
       </c>
       <c r="R577" t="s">
         <v>191</v>
@@ -35337,6 +35388,7 @@
       <c r="M578" s="10">
         <v>3.4191408034637498</v>
       </c>
+      <c r="Q578"/>
       <c r="R578" t="s">
         <v>191</v>
       </c>
@@ -35396,8 +35448,8 @@
       <c r="P579" s="9">
         <v>90</v>
       </c>
-      <c r="Q579" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q579">
+        <v>7.7292799999999998E-3</v>
       </c>
       <c r="R579" t="s">
         <v>191</v>
@@ -35458,6 +35510,7 @@
       <c r="M580" s="10">
         <v>14.965840117713199</v>
       </c>
+      <c r="Q580"/>
       <c r="R580" t="s">
         <v>191</v>
       </c>
@@ -35517,8 +35570,8 @@
       <c r="P581" s="9">
         <v>90</v>
       </c>
-      <c r="Q581" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q581">
+        <v>6.2496360000000003E-3</v>
       </c>
       <c r="R581" t="s">
         <v>191</v>
@@ -35579,6 +35632,7 @@
       <c r="M582" s="10">
         <v>29.676994856171099</v>
       </c>
+      <c r="Q582"/>
       <c r="R582" t="s">
         <v>191</v>
       </c>
@@ -35638,8 +35692,8 @@
       <c r="P583" s="9">
         <v>90</v>
       </c>
-      <c r="Q583" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q583">
+        <v>4.12956E-3</v>
       </c>
       <c r="R583" t="s">
         <v>191</v>
@@ -35700,6 +35754,7 @@
       <c r="M584" s="10">
         <v>37.271454181167698</v>
       </c>
+      <c r="Q584"/>
       <c r="R584" t="s">
         <v>191</v>
       </c>
@@ -35759,8 +35814,8 @@
       <c r="P585" s="9">
         <v>90</v>
       </c>
-      <c r="Q585" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q585">
+        <v>1.2614799999999999E-3</v>
       </c>
       <c r="R585" t="s">
         <v>191</v>
@@ -35804,7 +35859,7 @@
         <v>10</v>
       </c>
       <c r="H586">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I586" s="10">
         <v>25.456661329901401</v>
@@ -35821,6 +35876,7 @@
       <c r="M586" s="10">
         <v>31.496201018795698</v>
       </c>
+      <c r="Q586"/>
       <c r="R586" t="s">
         <v>191</v>
       </c>
@@ -35854,7 +35910,7 @@
         <v>10</v>
       </c>
       <c r="H587">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I587" s="10">
         <v>11.5391104605122</v>
@@ -35880,8 +35936,8 @@
       <c r="P587" s="9">
         <v>90</v>
       </c>
-      <c r="Q587" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q587">
+        <v>2.6070200000000003E-4</v>
       </c>
       <c r="R587" t="s">
         <v>191</v>
@@ -35925,7 +35981,7 @@
         <v>11</v>
       </c>
       <c r="H588">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I588" s="10">
         <v>28.810617262165099</v>
@@ -35942,6 +35998,7 @@
       <c r="M588" s="10">
         <v>30.8357079380085</v>
       </c>
+      <c r="Q588"/>
       <c r="R588" t="s">
         <v>191</v>
       </c>
@@ -35975,7 +36032,7 @@
         <v>11</v>
       </c>
       <c r="H589">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I589" s="10">
         <v>12.797519024119699</v>
@@ -36001,8 +36058,8 @@
       <c r="P589" s="9">
         <v>90</v>
       </c>
-      <c r="Q589" s="9">
-        <v>2.9772376769368771E-4</v>
+      <c r="Q589">
+        <v>1.9079500000000001E-4</v>
       </c>
       <c r="R589" t="s">
         <v>191</v>
@@ -36172,8 +36229,8 @@
       <c r="P592" s="9">
         <v>90</v>
       </c>
-      <c r="Q592" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q592">
+        <v>1.718907E-3</v>
       </c>
       <c r="R592" t="s">
         <v>191</v>
@@ -36243,8 +36300,8 @@
       <c r="P593" s="9">
         <v>90</v>
       </c>
-      <c r="Q593" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q593">
+        <v>1.718907E-3</v>
       </c>
       <c r="R593" t="s">
         <v>191</v>
@@ -36305,6 +36362,7 @@
       <c r="M594" s="10">
         <v>13.381687961779701</v>
       </c>
+      <c r="Q594"/>
       <c r="R594" t="s">
         <v>191</v>
       </c>
@@ -36364,8 +36422,8 @@
       <c r="P595" s="9">
         <v>90</v>
       </c>
-      <c r="Q595" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q595">
+        <v>5.8944169999999999E-3</v>
       </c>
       <c r="R595" t="s">
         <v>191</v>
@@ -36426,6 +36484,7 @@
       <c r="M596" s="10">
         <v>10.1194920158577</v>
       </c>
+      <c r="Q596"/>
       <c r="R596" t="s">
         <v>191</v>
       </c>
@@ -36485,8 +36544,8 @@
       <c r="P597" s="9">
         <v>90</v>
       </c>
-      <c r="Q597" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q597">
+        <v>7.4625059999999998E-3</v>
       </c>
       <c r="R597" t="s">
         <v>191</v>
@@ -36547,6 +36606,7 @@
       <c r="M598" s="10">
         <v>14.789159232979401</v>
       </c>
+      <c r="Q598"/>
       <c r="R598" t="s">
         <v>191</v>
       </c>
@@ -36606,8 +36666,8 @@
       <c r="P599" s="9">
         <v>90</v>
       </c>
-      <c r="Q599" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q599">
+        <v>7.6647809999999999E-3</v>
       </c>
       <c r="R599" t="s">
         <v>191</v>
@@ -36668,6 +36728,7 @@
       <c r="M600" s="10">
         <v>6.3020132694988202</v>
       </c>
+      <c r="Q600"/>
       <c r="R600" t="s">
         <v>191</v>
       </c>
@@ -36727,8 +36788,8 @@
       <c r="P601" s="9">
         <v>90</v>
       </c>
-      <c r="Q601" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q601">
+        <v>7.7292799999999998E-3</v>
       </c>
       <c r="R601" t="s">
         <v>191</v>
@@ -36789,6 +36850,7 @@
       <c r="M602" s="10">
         <v>18.6181050429729</v>
       </c>
+      <c r="Q602"/>
       <c r="R602" t="s">
         <v>191</v>
       </c>
@@ -36848,8 +36910,8 @@
       <c r="P603" s="9">
         <v>90</v>
       </c>
-      <c r="Q603" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q603">
+        <v>6.2496360000000003E-3</v>
       </c>
       <c r="R603" t="s">
         <v>191</v>
@@ -36910,6 +36972,7 @@
       <c r="M604" s="10">
         <v>21.024661658444298</v>
       </c>
+      <c r="Q604"/>
       <c r="R604" t="s">
         <v>191</v>
       </c>
@@ -36969,8 +37032,8 @@
       <c r="P605" s="9">
         <v>90</v>
       </c>
-      <c r="Q605" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q605">
+        <v>4.12956E-3</v>
       </c>
       <c r="R605" t="s">
         <v>191</v>
@@ -37031,6 +37094,7 @@
       <c r="M606" s="10">
         <v>14.9127475811233</v>
       </c>
+      <c r="Q606"/>
       <c r="R606" t="s">
         <v>191</v>
       </c>
@@ -37090,8 +37154,8 @@
       <c r="P607" s="9">
         <v>90</v>
       </c>
-      <c r="Q607" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q607">
+        <v>1.2614799999999999E-3</v>
       </c>
       <c r="R607" t="s">
         <v>191</v>
@@ -37152,6 +37216,7 @@
       <c r="M608" s="9">
         <v>4.2097240266035501</v>
       </c>
+      <c r="Q608"/>
       <c r="R608" t="s">
         <v>191</v>
       </c>
@@ -37202,6 +37267,7 @@
       <c r="M609" s="10">
         <v>3.9876121225791401</v>
       </c>
+      <c r="Q609"/>
       <c r="R609" t="s">
         <v>191</v>
       </c>
@@ -37261,8 +37327,8 @@
       <c r="P610" s="9">
         <v>90</v>
       </c>
-      <c r="Q610" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q610">
+        <v>1.718907E-3</v>
       </c>
       <c r="R610" t="s">
         <v>191</v>
@@ -37332,8 +37398,8 @@
       <c r="P611" s="9">
         <v>90</v>
       </c>
-      <c r="Q611" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q611">
+        <v>1.718907E-3</v>
       </c>
       <c r="R611" t="s">
         <v>191</v>
@@ -37394,6 +37460,7 @@
       <c r="M612" s="10">
         <v>8.1737363040508306</v>
       </c>
+      <c r="Q612"/>
       <c r="R612" t="s">
         <v>191</v>
       </c>
@@ -37453,8 +37520,8 @@
       <c r="P613" s="9">
         <v>90</v>
       </c>
-      <c r="Q613" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q613">
+        <v>5.8944169999999999E-3</v>
       </c>
       <c r="R613" t="s">
         <v>191</v>
@@ -37515,6 +37582,7 @@
       <c r="M614" s="10">
         <v>8.8134172351533504</v>
       </c>
+      <c r="Q614"/>
       <c r="R614" t="s">
         <v>191</v>
       </c>
@@ -37574,8 +37642,8 @@
       <c r="P615" s="9">
         <v>90</v>
       </c>
-      <c r="Q615" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q615">
+        <v>7.4625059999999998E-3</v>
       </c>
       <c r="R615" t="s">
         <v>191</v>
@@ -37636,6 +37704,7 @@
       <c r="M616" s="10">
         <v>4.9566230099100199</v>
       </c>
+      <c r="Q616"/>
       <c r="R616" t="s">
         <v>191</v>
       </c>
@@ -37695,8 +37764,8 @@
       <c r="P617" s="9">
         <v>90</v>
       </c>
-      <c r="Q617" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q617">
+        <v>7.6647809999999999E-3</v>
       </c>
       <c r="R617" t="s">
         <v>191</v>
@@ -37757,6 +37826,7 @@
       <c r="M618" s="10">
         <v>7.9064498047436702</v>
       </c>
+      <c r="Q618"/>
       <c r="R618" t="s">
         <v>191</v>
       </c>
@@ -37816,8 +37886,8 @@
       <c r="P619" s="9">
         <v>90</v>
       </c>
-      <c r="Q619" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q619">
+        <v>7.7292799999999998E-3</v>
       </c>
       <c r="R619" t="s">
         <v>191</v>
@@ -37878,6 +37948,7 @@
       <c r="M620" s="10">
         <v>4.4177730036354701</v>
       </c>
+      <c r="Q620"/>
       <c r="R620" t="s">
         <v>191</v>
       </c>
@@ -37937,8 +38008,8 @@
       <c r="P621" s="9">
         <v>90</v>
       </c>
-      <c r="Q621" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q621">
+        <v>6.2496360000000003E-3</v>
       </c>
       <c r="R621" t="s">
         <v>191</v>
@@ -37999,6 +38070,7 @@
       <c r="M622" s="10">
         <v>8.4028624466911808</v>
       </c>
+      <c r="Q622"/>
       <c r="R622" t="s">
         <v>191</v>
       </c>
@@ -38058,8 +38130,8 @@
       <c r="P623" s="9">
         <v>90</v>
       </c>
-      <c r="Q623" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q623">
+        <v>4.12956E-3</v>
       </c>
       <c r="R623" t="s">
         <v>191</v>
@@ -38120,6 +38192,7 @@
       <c r="M624" s="10">
         <v>24.9070819848761</v>
       </c>
+      <c r="Q624"/>
       <c r="R624" t="s">
         <v>191</v>
       </c>
@@ -38179,8 +38252,8 @@
       <c r="P625" s="9">
         <v>90</v>
       </c>
-      <c r="Q625" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q625">
+        <v>1.2614799999999999E-3</v>
       </c>
       <c r="R625" t="s">
         <v>191</v>
@@ -38224,7 +38297,7 @@
         <v>10</v>
       </c>
       <c r="H626">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I626" s="10">
         <v>34.697422437905097</v>
@@ -38241,6 +38314,7 @@
       <c r="M626" s="10">
         <v>25.965996274049601</v>
       </c>
+      <c r="Q626"/>
       <c r="R626" t="s">
         <v>191</v>
       </c>
@@ -38274,7 +38348,7 @@
         <v>10</v>
       </c>
       <c r="H627">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I627" s="10">
         <v>17.882031715072401</v>
@@ -38300,8 +38374,8 @@
       <c r="P627" s="9">
         <v>90</v>
       </c>
-      <c r="Q627" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q627">
+        <v>2.6070200000000003E-4</v>
       </c>
       <c r="R627" t="s">
         <v>191</v>
@@ -38345,7 +38419,7 @@
         <v>11</v>
       </c>
       <c r="H628">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I628" s="10">
         <v>30.862108584581399</v>
@@ -38362,6 +38436,7 @@
       <c r="M628" s="10">
         <v>29.446228280391502</v>
       </c>
+      <c r="Q628"/>
       <c r="R628" t="s">
         <v>191</v>
       </c>
@@ -38395,7 +38470,7 @@
         <v>11</v>
       </c>
       <c r="H629">
-        <v>0.12</v>
+        <v>1</v>
       </c>
       <c r="I629" s="10">
         <v>11.7838213932254</v>
@@ -38421,8 +38496,8 @@
       <c r="P629" s="9">
         <v>90</v>
       </c>
-      <c r="Q629" s="9">
-        <v>2.9772376769368771E-4</v>
+      <c r="Q629">
+        <v>1.9079500000000001E-4</v>
       </c>
       <c r="R629" t="s">
         <v>191</v>
@@ -38592,8 +38667,8 @@
       <c r="P632" s="9">
         <v>90</v>
       </c>
-      <c r="Q632" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q632">
+        <v>1.718907E-3</v>
       </c>
       <c r="R632" t="s">
         <v>187</v>
@@ -38663,8 +38738,8 @@
       <c r="P633" s="9">
         <v>90</v>
       </c>
-      <c r="Q633" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q633">
+        <v>1.718907E-3</v>
       </c>
       <c r="R633" t="s">
         <v>187</v>
@@ -38725,6 +38800,7 @@
       <c r="M634" s="10">
         <v>2.8093217172278799</v>
       </c>
+      <c r="Q634"/>
       <c r="R634" t="s">
         <v>187</v>
       </c>
@@ -38784,8 +38860,8 @@
       <c r="P635" s="9">
         <v>90</v>
       </c>
-      <c r="Q635" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q635">
+        <v>6.1815439999999998E-3</v>
       </c>
       <c r="R635" t="s">
         <v>187</v>
@@ -38846,6 +38922,7 @@
       <c r="M636" s="10">
         <v>7.7041592374447498</v>
       </c>
+      <c r="Q636"/>
       <c r="R636" t="s">
         <v>187</v>
       </c>
@@ -38905,8 +38982,8 @@
       <c r="P637" s="9">
         <v>90</v>
       </c>
-      <c r="Q637" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q637">
+        <v>6.791882E-3</v>
       </c>
       <c r="R637" t="s">
         <v>187</v>
@@ -38967,6 +39044,7 @@
       <c r="M638" s="10">
         <v>7.4879863350673599</v>
       </c>
+      <c r="Q638"/>
       <c r="R638" t="s">
         <v>187</v>
       </c>
@@ -39026,8 +39104,8 @@
       <c r="P639" s="9">
         <v>90</v>
       </c>
-      <c r="Q639" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q639">
+        <v>7.3202800000000002E-3</v>
       </c>
       <c r="R639" t="s">
         <v>187</v>
@@ -39088,6 +39166,7 @@
       <c r="M640" s="10">
         <v>6.5525495821011601</v>
       </c>
+      <c r="Q640"/>
       <c r="R640" t="s">
         <v>187</v>
       </c>
@@ -39147,8 +39226,8 @@
       <c r="P641" s="9">
         <v>90</v>
       </c>
-      <c r="Q641" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q641">
+        <v>9.1294400000000008E-3</v>
       </c>
       <c r="R641" t="s">
         <v>187</v>
@@ -39209,6 +39288,7 @@
       <c r="M642" s="10">
         <v>6.5080186780676401</v>
       </c>
+      <c r="Q642"/>
       <c r="R642" t="s">
         <v>187</v>
       </c>
@@ -39268,8 +39348,8 @@
       <c r="P643" s="9">
         <v>90</v>
       </c>
-      <c r="Q643" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q643">
+        <v>6.8884100000000002E-3</v>
       </c>
       <c r="R643" t="s">
         <v>187</v>
@@ -39330,6 +39410,7 @@
       <c r="M644" s="10">
         <v>7.1876792489361598</v>
       </c>
+      <c r="Q644"/>
       <c r="R644" t="s">
         <v>187</v>
       </c>
@@ -39389,8 +39470,8 @@
       <c r="P645" s="9">
         <v>90</v>
       </c>
-      <c r="Q645" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q645">
+        <v>5.5255829999999997E-3</v>
       </c>
       <c r="R645" t="s">
         <v>187</v>
@@ -39451,6 +39532,7 @@
       <c r="M646" s="10">
         <v>42.966496609676497</v>
       </c>
+      <c r="Q646"/>
       <c r="R646" t="s">
         <v>187</v>
       </c>
@@ -39510,8 +39592,8 @@
       <c r="P647" s="9">
         <v>90</v>
       </c>
-      <c r="Q647" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q647">
+        <v>2.1792999999999999E-3</v>
       </c>
       <c r="R647" t="s">
         <v>187</v>
@@ -39572,6 +39654,7 @@
       <c r="M648" s="10">
         <v>12.287468844255701</v>
       </c>
+      <c r="Q648"/>
       <c r="R648" t="s">
         <v>191</v>
       </c>
@@ -39622,6 +39705,7 @@
       <c r="M649" s="9">
         <v>9.1155809993214607</v>
       </c>
+      <c r="Q649"/>
       <c r="R649" t="s">
         <v>191</v>
       </c>
@@ -39681,8 +39765,8 @@
       <c r="P650" s="9">
         <v>90</v>
       </c>
-      <c r="Q650" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q650">
+        <v>1.718907E-3</v>
       </c>
       <c r="R650" t="s">
         <v>191</v>
@@ -39752,8 +39836,8 @@
       <c r="P651" s="9">
         <v>90</v>
       </c>
-      <c r="Q651" s="9">
-        <v>1.7189073000000001E-3</v>
+      <c r="Q651">
+        <v>1.718907E-3</v>
       </c>
       <c r="R651" t="s">
         <v>191</v>
@@ -39814,6 +39898,7 @@
       <c r="M652" s="9">
         <v>8.5103410302607401</v>
       </c>
+      <c r="Q652"/>
       <c r="R652" t="s">
         <v>191</v>
       </c>
@@ -39873,8 +39958,8 @@
       <c r="P653" s="9">
         <v>90</v>
       </c>
-      <c r="Q653" s="9">
-        <v>6.0379804322973326E-3</v>
+      <c r="Q653">
+        <v>5.8944169999999999E-3</v>
       </c>
       <c r="R653" t="s">
         <v>191</v>
@@ -39935,6 +40020,7 @@
       <c r="M654" s="9">
         <v>8.1140827094071106</v>
       </c>
+      <c r="Q654"/>
       <c r="R654" t="s">
         <v>191</v>
       </c>
@@ -39994,8 +40080,8 @@
       <c r="P655" s="9">
         <v>90</v>
       </c>
-      <c r="Q655" s="9">
-        <v>7.1271940901430587E-3</v>
+      <c r="Q655">
+        <v>7.4625059999999998E-3</v>
       </c>
       <c r="R655" t="s">
         <v>191</v>
@@ -40056,6 +40142,7 @@
       <c r="M656" s="10">
         <v>8.08958070584616</v>
       </c>
+      <c r="Q656"/>
       <c r="R656" t="s">
         <v>191</v>
       </c>
@@ -40115,8 +40202,8 @@
       <c r="P657" s="9">
         <v>90</v>
       </c>
-      <c r="Q657" s="9">
-        <v>7.4925304544616878E-3</v>
+      <c r="Q657">
+        <v>7.6647809999999999E-3</v>
       </c>
       <c r="R657" t="s">
         <v>191</v>
@@ -40177,6 +40264,7 @@
       <c r="M658" s="10">
         <v>8.0797620136398098</v>
       </c>
+      <c r="Q658"/>
       <c r="R658" t="s">
         <v>191</v>
       </c>
@@ -40236,8 +40324,8 @@
       <c r="P659" s="9">
         <v>90</v>
       </c>
-      <c r="Q659" s="9">
-        <v>8.4293601402004262E-3</v>
+      <c r="Q659">
+        <v>7.7292799999999998E-3</v>
       </c>
       <c r="R659" t="s">
         <v>191</v>
@@ -40298,6 +40386,7 @@
       <c r="M660" s="10">
         <v>2.4784361056479498</v>
       </c>
+      <c r="Q660"/>
       <c r="R660" t="s">
         <v>191</v>
       </c>
@@ -40357,8 +40446,8 @@
       <c r="P661" s="9">
         <v>90</v>
       </c>
-      <c r="Q661" s="9">
-        <v>6.5690233362899223E-3</v>
+      <c r="Q661">
+        <v>6.2496360000000003E-3</v>
       </c>
       <c r="R661" t="s">
         <v>191</v>
@@ -40419,6 +40508,7 @@
       <c r="M662" s="10">
         <v>16.147214290834398</v>
       </c>
+      <c r="Q662"/>
       <c r="R662" t="s">
         <v>191</v>
       </c>
@@ -40478,8 +40568,8 @@
       <c r="P663" s="9">
         <v>90</v>
       </c>
-      <c r="Q663" s="9">
-        <v>4.8275714684463348E-3</v>
+      <c r="Q663">
+        <v>4.12956E-3</v>
       </c>
       <c r="R663" t="s">
         <v>191</v>
@@ -40540,6 +40630,7 @@
       <c r="M664" s="10">
         <v>33.3146233762454</v>
       </c>
+      <c r="Q664"/>
       <c r="R664" t="s">
         <v>191</v>
       </c>
@@ -40599,8 +40690,8 @@
       <c r="P665" s="9">
         <v>90</v>
       </c>
-      <c r="Q665" s="9">
-        <v>1.7203899269987439E-3</v>
+      <c r="Q665">
+        <v>1.2614799999999999E-3</v>
       </c>
       <c r="R665" t="s">
         <v>191</v>
@@ -40644,7 +40735,7 @@
         <v>10</v>
       </c>
       <c r="H666">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I666" s="10">
         <v>41.739056835565897</v>
@@ -40661,6 +40752,7 @@
       <c r="M666" s="10">
         <v>27.539085446997301</v>
       </c>
+      <c r="Q666"/>
       <c r="R666" t="s">
         <v>191</v>
       </c>
@@ -40694,7 +40786,7 @@
         <v>10</v>
       </c>
       <c r="H667">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="I667" s="10">
         <v>19.0386877393539</v>
@@ -40720,8 +40812,8 @@
       <c r="P667" s="9">
         <v>90</v>
       </c>
-      <c r="Q667" s="9">
-        <v>3.719151419193748E-4</v>
+      <c r="Q667">
+        <v>2.6070200000000003E-4</v>
       </c>
       <c r="R667" t="s">
         <v>191</v>
@@ -40744,6 +40836,12 @@
       <c r="X667" s="4">
         <v>0.8</v>
       </c>
+    </row>
+    <row r="668" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q668"/>
+    </row>
+    <row r="669" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="Q669"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:AH667" xr:uid="{F8FD7564-1FE3-46D8-96B8-1A13DC8468A9}"/>
